--- a/Lista 1/L1-Q10.xlsx
+++ b/Lista 1/L1-Q10.xlsx
@@ -9,42 +9,46 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Questão 10" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatório de Sensibilidade 1" sheetId="4" r:id="rId1"/>
+    <sheet name="Planilha1" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="solver_adj" localSheetId="0" hidden="1">'Questão 10'!$A$3:$A$7</definedName>
-    <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
-    <definedName name="solver_drv" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_eng" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_est" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
-    <definedName name="solver_lhs1" localSheetId="0" hidden="1">'Questão 10'!$C$3:$C$11</definedName>
-    <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
-    <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
-    <definedName name="solver_mrt" localSheetId="0" hidden="1">0.075</definedName>
-    <definedName name="solver_msl" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
-    <definedName name="solver_num" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_opt" localSheetId="0" hidden="1">'Questão 10'!$E$3</definedName>
-    <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
-    <definedName name="solver_rbv" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_rel1" localSheetId="0" hidden="1">3</definedName>
-    <definedName name="solver_rhs1" localSheetId="0" hidden="1">0</definedName>
-    <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_rsd" localSheetId="0" hidden="1">0</definedName>
-    <definedName name="solver_scl" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_sho" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_ssz" localSheetId="0" hidden="1">100</definedName>
-    <definedName name="solver_tim" localSheetId="0" hidden="1">2147483647</definedName>
-    <definedName name="solver_tol" localSheetId="0" hidden="1">0.01</definedName>
-    <definedName name="solver_typ" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
-    <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_adj" localSheetId="1" hidden="1">Planilha1!$B$5:$F$5</definedName>
+    <definedName name="solver_cvg" localSheetId="1" hidden="1">0.0001</definedName>
+    <definedName name="solver_drv" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_est" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_itr" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_lhs1" localSheetId="1" hidden="1">Planilha1!$L$13:$L$21</definedName>
+    <definedName name="solver_lhs2" localSheetId="1" hidden="1">Planilha1!$L$18:$L$20</definedName>
+    <definedName name="solver_mip" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_mni" localSheetId="1" hidden="1">30</definedName>
+    <definedName name="solver_mrt" localSheetId="1" hidden="1">0.075</definedName>
+    <definedName name="solver_msl" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_neg" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_nod" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_num" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_nwt" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_opt" localSheetId="1" hidden="1">Planilha1!$C$1</definedName>
+    <definedName name="solver_pre" localSheetId="1" hidden="1">0.000001</definedName>
+    <definedName name="solver_rbv" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_rel1" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_rel2" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_rhs1" localSheetId="1" hidden="1">Planilha1!$N$13:$N$21</definedName>
+    <definedName name="solver_rhs2" localSheetId="1" hidden="1">Planilha1!$N$18:$N$20</definedName>
+    <definedName name="solver_rlx" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_rsd" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_scl" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_sho" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_ssz" localSheetId="1" hidden="1">100</definedName>
+    <definedName name="solver_tim" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_tol" localSheetId="1" hidden="1">0.01</definedName>
+    <definedName name="solver_typ" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_val" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_ver" localSheetId="1" hidden="1">3</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -56,25 +60,179 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>Variáveis:</t>
-  </si>
-  <si>
-    <t>Restrições:</t>
-  </si>
-  <si>
-    <t>Função objetivo:</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="49">
+  <si>
+    <t>F. O.</t>
+  </si>
+  <si>
+    <t>x1</t>
+  </si>
+  <si>
+    <t>x2</t>
+  </si>
+  <si>
+    <t>Variáveis</t>
+  </si>
+  <si>
+    <t>Objetivo</t>
+  </si>
+  <si>
+    <t>Parâmetros</t>
+  </si>
+  <si>
+    <t>&lt;=</t>
+  </si>
+  <si>
+    <t>Restrições</t>
+  </si>
+  <si>
+    <t>x3</t>
+  </si>
+  <si>
+    <t>x4</t>
+  </si>
+  <si>
+    <t>x5</t>
+  </si>
+  <si>
+    <t>Microsoft Excel 16.0 Relatório de Sensibilidade</t>
+  </si>
+  <si>
+    <t>Células Variáveis</t>
+  </si>
+  <si>
+    <t>Célula</t>
+  </si>
+  <si>
+    <t>Nome</t>
+  </si>
+  <si>
+    <t>Final</t>
+  </si>
+  <si>
+    <t>Valor</t>
+  </si>
+  <si>
+    <t>Reduzido</t>
+  </si>
+  <si>
+    <t>Custo</t>
+  </si>
+  <si>
+    <t>Coeficiente</t>
+  </si>
+  <si>
+    <t>Permitido</t>
+  </si>
+  <si>
+    <t>Aumentar</t>
+  </si>
+  <si>
+    <t>Reduzir</t>
+  </si>
+  <si>
+    <t>Sombra</t>
+  </si>
+  <si>
+    <t>Preço</t>
+  </si>
+  <si>
+    <t>Restrição</t>
+  </si>
+  <si>
+    <t>Lateral R.H.</t>
+  </si>
+  <si>
+    <t>$B$5</t>
+  </si>
+  <si>
+    <t>Variáveis x1</t>
+  </si>
+  <si>
+    <t>$C$5</t>
+  </si>
+  <si>
+    <t>Variáveis x2</t>
+  </si>
+  <si>
+    <t>$D$5</t>
+  </si>
+  <si>
+    <t>Variáveis x3</t>
+  </si>
+  <si>
+    <t>$E$5</t>
+  </si>
+  <si>
+    <t>Variáveis x4</t>
+  </si>
+  <si>
+    <t>$F$5</t>
+  </si>
+  <si>
+    <t>Variáveis x5</t>
+  </si>
+  <si>
+    <t>Max z = 30x1+40x2+45x3+25x4+60x5</t>
+  </si>
+  <si>
+    <t>$L$13</t>
+  </si>
+  <si>
+    <t>$L$14</t>
+  </si>
+  <si>
+    <t>$L$15</t>
+  </si>
+  <si>
+    <t>$L$16</t>
+  </si>
+  <si>
+    <t>$L$17</t>
+  </si>
+  <si>
+    <t>$L$18</t>
+  </si>
+  <si>
+    <t>$L$19</t>
+  </si>
+  <si>
+    <t>$L$20</t>
+  </si>
+  <si>
+    <t>$L$21</t>
+  </si>
+  <si>
+    <t>Planilha: [L1-Q10.xlsx]Planilha1</t>
+  </si>
+  <si>
+    <t>Relatório Criado: 24/02/2022 19:20:02</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="18"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -94,7 +252,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -102,13 +260,61 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="23"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="23"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="23"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="23"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="23"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -389,94 +595,866 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.28515625" customWidth="1"/>
+    <col min="2" max="2" width="6.5703125" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.7109375" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="4">
+        <v>10</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0</v>
+      </c>
+      <c r="F9" s="4">
+        <v>30</v>
+      </c>
+      <c r="G9" s="4">
+        <v>59.999999999999979</v>
+      </c>
+      <c r="H9" s="4">
+        <v>13.333333333333336</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="4">
+        <v>50</v>
+      </c>
+      <c r="E10" s="4">
+        <v>0</v>
+      </c>
+      <c r="F10" s="4">
+        <v>40</v>
+      </c>
+      <c r="G10" s="4">
+        <v>1E+30</v>
+      </c>
+      <c r="H10" s="4">
+        <v>26.81818181818182</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="4">
+        <v>90</v>
+      </c>
+      <c r="E11" s="4">
+        <v>0</v>
+      </c>
+      <c r="F11" s="4">
+        <v>45</v>
+      </c>
+      <c r="G11" s="4">
+        <v>1E+30</v>
+      </c>
+      <c r="H11" s="4">
+        <v>41.36363636363636</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="4">
+        <v>70</v>
+      </c>
+      <c r="E12" s="4">
+        <v>0</v>
+      </c>
+      <c r="F12" s="4">
+        <v>25</v>
+      </c>
+      <c r="G12" s="4">
+        <v>20</v>
+      </c>
+      <c r="H12" s="4">
+        <v>21.249999999999996</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="5">
+        <v>30</v>
+      </c>
+      <c r="E13" s="5">
+        <v>0</v>
+      </c>
+      <c r="F13" s="5">
+        <v>60</v>
+      </c>
+      <c r="G13" s="5">
+        <v>1E+30</v>
+      </c>
+      <c r="H13" s="5">
+        <v>21.818181818181817</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="4">
+        <v>700</v>
+      </c>
+      <c r="E18" s="4">
+        <v>0</v>
+      </c>
+      <c r="F18" s="4">
+        <v>700</v>
+      </c>
+      <c r="G18" s="4">
+        <v>1E+30</v>
+      </c>
+      <c r="H18" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="4">
+        <v>600</v>
+      </c>
+      <c r="E19" s="4">
+        <v>1.8181818181818183</v>
+      </c>
+      <c r="F19" s="4">
+        <v>600</v>
+      </c>
+      <c r="G19" s="4">
+        <v>0</v>
+      </c>
+      <c r="H19" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B20" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="4">
+        <v>400</v>
+      </c>
+      <c r="E20" s="4">
+        <v>7.7272727272727266</v>
+      </c>
+      <c r="F20" s="4">
+        <v>400</v>
+      </c>
+      <c r="G20" s="4">
+        <v>0</v>
+      </c>
+      <c r="H20" s="4">
+        <v>192.5</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B21" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="4">
+        <v>610</v>
+      </c>
+      <c r="E21" s="4">
+        <v>0</v>
+      </c>
+      <c r="F21" s="4">
+        <v>900</v>
+      </c>
+      <c r="G21" s="4">
+        <v>1E+30</v>
+      </c>
+      <c r="H21" s="4">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B22" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="4">
+        <v>10</v>
+      </c>
+      <c r="E22" s="4">
+        <v>0</v>
+      </c>
+      <c r="F22" s="4">
+        <v>100</v>
+      </c>
+      <c r="G22" s="4">
+        <v>1E+30</v>
+      </c>
+      <c r="H22" s="4">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B23" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="4">
+        <v>50</v>
+      </c>
+      <c r="E23" s="4">
+        <v>26.81818181818182</v>
+      </c>
+      <c r="F23" s="4">
+        <v>50</v>
+      </c>
+      <c r="G23" s="4">
+        <v>0</v>
+      </c>
+      <c r="H23" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B24" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" s="4">
+        <v>90</v>
+      </c>
+      <c r="E24" s="4">
+        <v>41.36363636363636</v>
+      </c>
+      <c r="F24" s="4">
+        <v>90</v>
+      </c>
+      <c r="G24" s="4">
+        <v>0</v>
+      </c>
+      <c r="H24" s="4">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B25" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="4">
+        <v>70</v>
+      </c>
+      <c r="E25" s="4">
+        <v>0</v>
+      </c>
+      <c r="F25" s="4">
+        <v>70</v>
+      </c>
+      <c r="G25" s="4">
+        <v>1E+30</v>
+      </c>
+      <c r="H25" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="5">
+        <v>30</v>
+      </c>
+      <c r="E26" s="5">
+        <v>21.818181818181817</v>
+      </c>
+      <c r="F26" s="5">
+        <v>30</v>
+      </c>
+      <c r="G26" s="5">
+        <v>0</v>
+      </c>
+      <c r="H26" s="5">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="2">
+        <f>30*B5+40*C5+45*D5+25*E5+60*F5</f>
+        <v>9900</v>
+      </c>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="C4" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="D4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C3">
-        <f>700-(3*A3+4*A4+2*A5+2*A6+5*A7)</f>
-        <v>0</v>
-      </c>
-      <c r="E3" s="1">
-        <f>30*A3+40*A4+45*A5+25*A6+60*A7</f>
-        <v>9900</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1">
         <v>50</v>
       </c>
-      <c r="C4">
-        <f>600-(8*A3+3*A4+2*A5+A6+4*A7)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="D5" s="1">
         <v>90</v>
       </c>
-      <c r="C5">
-        <f>400-(2*A3+A4+3*A6+4*A7)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="E5" s="1">
         <v>70</v>
       </c>
-      <c r="C6">
-        <f>900-(6*A3+2*A5+4*A6+3*A7)</f>
-        <v>290</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="F5" s="1">
         <v>30</v>
       </c>
-      <c r="C7">
-        <f>100-A3</f>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="1">
+        <v>30</v>
+      </c>
+      <c r="C9" s="1">
+        <v>40</v>
+      </c>
+      <c r="D9" s="1">
+        <v>45</v>
+      </c>
+      <c r="E9" s="1">
+        <v>25</v>
+      </c>
+      <c r="F9" s="1">
+        <v>60</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="1">
+        <v>3</v>
+      </c>
+      <c r="C13" s="1">
+        <v>4</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>5</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H13" s="1">
+        <v>700</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L13" s="1">
+        <f>SUMPRODUCT($B$5:$F$5,B13:F13)</f>
+        <v>700</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N13" s="1">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1">
+        <v>8</v>
+      </c>
+      <c r="C14" s="1">
+        <v>3</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>4</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H14" s="1">
+        <v>600</v>
+      </c>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1">
+        <f t="shared" ref="L14:L21" si="0">SUMPRODUCT($B$5:$F$5,B14:F14)</f>
+        <v>600</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N14" s="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1">
+        <v>2</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>4</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H15" s="1">
+        <v>400</v>
+      </c>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N15" s="1">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>6</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <v>4</v>
+      </c>
+      <c r="F16">
+        <v>3</v>
+      </c>
+      <c r="G16" t="s">
+        <v>6</v>
+      </c>
+      <c r="H16">
+        <v>900</v>
+      </c>
+      <c r="L16" s="1">
+        <f t="shared" si="0"/>
+        <v>610</v>
+      </c>
+      <c r="M16" t="s">
+        <v>6</v>
+      </c>
+      <c r="N16">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H17">
+        <v>100</v>
+      </c>
+      <c r="L17" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="M17" t="s">
+        <v>6</v>
+      </c>
+      <c r="N17">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18" t="s">
+        <v>6</v>
+      </c>
+      <c r="H18">
+        <v>50</v>
+      </c>
+      <c r="L18" s="1">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="M18" t="s">
+        <v>6</v>
+      </c>
+      <c r="N18">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19" t="s">
+        <v>6</v>
+      </c>
+      <c r="H19">
         <v>90</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C8">
-        <f>50-A4</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C9">
-        <f>90-A5</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C10">
-        <f>70-A6</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C11">
-        <f>30-A7</f>
-        <v>0</v>
+      <c r="L19" s="1">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="M19" t="s">
+        <v>6</v>
+      </c>
+      <c r="N19">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20" t="s">
+        <v>6</v>
+      </c>
+      <c r="H20">
+        <v>70</v>
+      </c>
+      <c r="L20" s="1">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="M20" t="s">
+        <v>6</v>
+      </c>
+      <c r="N20">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21" t="s">
+        <v>6</v>
+      </c>
+      <c r="H21">
+        <v>30</v>
+      </c>
+      <c r="L21" s="1">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="M21" t="s">
+        <v>6</v>
+      </c>
+      <c r="N21">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
